--- a/data-raw/gene_signatures.xlsx
+++ b/data-raw/gene_signatures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/semiquant/Bioinformatics/Projects/r_funk/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8730C92-2B33-184B-BE5D-9F2C2E90CB61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DF7A0A-80A6-B244-9B93-388164E87F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{3E3494DC-27AD-2549-BBCB-6F64B342ACBD}"/>
   </bookViews>
@@ -6122,7 +6122,7 @@
   <dimension ref="A1:D1769"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="C134" sqref="C134:C1769"/>
+      <selection activeCell="C130" sqref="C130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
